--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1415617.225360301</v>
+        <v>1470651.394402082</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6055563.163967099</v>
+        <v>6055563.163967101</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>138.2556937212302</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="G11" t="n">
-        <v>46.12823741901145</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T11" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>93.38655988810302</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>118.2164407208517</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.19401507386303</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.74615852550002</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="H14" t="n">
-        <v>222.6571589824342</v>
+        <v>141.98398459615</v>
       </c>
       <c r="I14" t="n">
         <v>120.7842216425874</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>71.60391311422086</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>127.4038378121719</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T15" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U15" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="W15" t="n">
-        <v>64.65498496461599</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>185.8074482855</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W16" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.9112904973219</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>71.60391311422092</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>46.12823741901133</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="F17" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>222.6571589824342</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>79.5319019759791</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V18" t="n">
-        <v>222.6571589824342</v>
+        <v>64.43861887924312</v>
       </c>
       <c r="W18" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.947399967071</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>107.8264252033977</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W19" t="n">
-        <v>186.7008385903645</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>71.60391311422092</v>
+        <v>71.60391311422086</v>
       </c>
       <c r="E20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.6606216994989</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U21" t="n">
-        <v>213.0908888368578</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V22" t="n">
         <v>222.6571589824342</v>
@@ -2304,10 +2304,10 @@
         <v>222.6571589824342</v>
       </c>
       <c r="X22" t="n">
-        <v>222.6571589824342</v>
+        <v>176.5383084861656</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="G23" t="n">
-        <v>95.47645793738747</v>
+        <v>215.4984668668601</v>
       </c>
       <c r="H23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S23" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>126.5544790841817</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>52.58379132639335</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>122.7741595303742</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="V25" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>193.6901089294036</v>
       </c>
     </row>
     <row r="26">
@@ -2563,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="G26" t="n">
-        <v>227.315574560478</v>
+        <v>215.4984668668601</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.728290874919821</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="I26" t="n">
-        <v>120.7842216425874</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>156.0053783754247</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.9116779448064</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>165.0830025676586</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>33.16251053028956</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>74.91219030228383</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>223.4866593014432</v>
       </c>
       <c r="U28" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>244.6351458310951</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>215.4984668668601</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S29" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>59.49308849143547</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="X29" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,10 +2873,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>17.18604976315059</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>46.64857669168575</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>77.68774586402404</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>64.80316564915779</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C32" t="n">
-        <v>248.8950473907584</v>
+        <v>187.6039142396064</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>59.49308849143547</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>248.8950473907584</v>
@@ -3113,10 +3113,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>11.03028367146446</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>54.31539185260872</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.124969500685596</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>69.27837348998958</v>
       </c>
       <c r="U34" t="n">
         <v>248.8950473907584</v>
@@ -3249,7 +3249,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>71.60391311422077</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S35" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>49.85652829393113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>5.65257222615191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>101.0996253922258</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.3289118284681</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6571589824342</v>
+        <v>217.0162348738043</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>222.6571589824343</v>
       </c>
-      <c r="D38" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>192.3881347568083</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>71.6039131142208</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>222.6571589824343</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2762944576503</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>75.06420103985478</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>33.11174906152742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.16762262226271</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T40" t="n">
         <v>222.6571589824343</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>222.6571589824343</v>
-      </c>
-      <c r="V40" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>46.12823741901136</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.9116779448064</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.8619066693559</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>48.03908029355885</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.8298553706975</v>
+        <v>139.0429323671229</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>222.6571589824343</v>
-      </c>
-      <c r="U43" t="n">
-        <v>212.9437292434647</v>
-      </c>
-      <c r="V43" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>222.6571589824343</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>156.0053783754247</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>222.6571589824343</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.11104725630343</v>
       </c>
       <c r="Y44" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>7.317903633380382</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>185.3654715543668</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,28 +4137,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>64.83876051115516</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>139.2185413275394</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>205.8298553706975</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="C11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="D11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="E11" t="n">
-        <v>289.3129731240954</v>
+        <v>589.6292793927926</v>
       </c>
       <c r="F11" t="n">
-        <v>289.3129731240954</v>
+        <v>364.7230581984145</v>
       </c>
       <c r="G11" t="n">
-        <v>242.7187939129728</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="H11" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I11" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J11" t="n">
-        <v>34.0597423407562</v>
+        <v>34.05974234075606</v>
       </c>
       <c r="K11" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L11" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711341</v>
       </c>
       <c r="M11" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734929</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974409</v>
+        <v>759.7050708974407</v>
       </c>
       <c r="P11" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237594</v>
       </c>
       <c r="Q11" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R11" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="S11" t="n">
-        <v>729.2814952728233</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="T11" t="n">
-        <v>514.2191943184735</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="U11" t="n">
-        <v>514.2191943184735</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="V11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="W11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="X11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="Y11" t="n">
-        <v>289.3129731240954</v>
+        <v>729.2814952728231</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.9648515046498</v>
+        <v>579.8992611659011</v>
       </c>
       <c r="C12" t="n">
-        <v>256.5118222235228</v>
+        <v>405.4462318847741</v>
       </c>
       <c r="D12" t="n">
         <v>256.5118222235228</v>
@@ -5114,58 +5114,58 @@
         <v>119.0383475152379</v>
       </c>
       <c r="H12" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I12" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J12" t="n">
-        <v>62.24029840864262</v>
+        <v>62.24029840864239</v>
       </c>
       <c r="K12" t="n">
-        <v>124.7714519989688</v>
+        <v>124.7714519989685</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1748459799669</v>
+        <v>255.1748459799667</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7063241973256</v>
+        <v>426.7063241973253</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1863751510018</v>
+        <v>617.1863751510016</v>
       </c>
       <c r="O12" t="n">
-        <v>769.2186132763801</v>
+        <v>769.2186132763799</v>
       </c>
       <c r="P12" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275938</v>
       </c>
       <c r="Q12" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="S12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="T12" t="n">
-        <v>693.5100469975491</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="U12" t="n">
-        <v>693.5100469975491</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="V12" t="n">
-        <v>599.1801885247178</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="W12" t="n">
-        <v>599.1801885247178</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="X12" t="n">
-        <v>599.1801885247178</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="Y12" t="n">
-        <v>599.1801885247178</v>
+        <v>748.114598185969</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="C13" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="D13" t="n">
-        <v>17.81257271859474</v>
+        <v>532.6030516985145</v>
       </c>
       <c r="E13" t="n">
-        <v>17.81257271859474</v>
+        <v>384.6899581161214</v>
       </c>
       <c r="F13" t="n">
-        <v>17.81257271859474</v>
+        <v>384.6899581161214</v>
       </c>
       <c r="G13" t="n">
-        <v>17.81257271859474</v>
+        <v>216.0562207756456</v>
       </c>
       <c r="H13" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J13" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K13" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="L13" t="n">
-        <v>296.7126787168869</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M13" t="n">
-        <v>497.8506719203921</v>
+        <v>394.9981493597612</v>
       </c>
       <c r="N13" t="n">
-        <v>699.6406696328909</v>
+        <v>596.78814707226</v>
       </c>
       <c r="O13" t="n">
-        <v>767.1575751028232</v>
+        <v>767.157575102823</v>
       </c>
       <c r="P13" t="n">
-        <v>889.4173707822654</v>
+        <v>889.4173707822652</v>
       </c>
       <c r="Q13" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R13" t="n">
-        <v>758.9414974385975</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S13" t="n">
-        <v>692.5312363017288</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="T13" t="n">
-        <v>467.6250151073508</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="U13" t="n">
-        <v>242.7187939129728</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="V13" t="n">
-        <v>242.7187939129728</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="W13" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="X13" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7196911108502</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7196911108502</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.7230581984146</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="C14" t="n">
-        <v>364.7230581984146</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="D14" t="n">
-        <v>364.7230581984146</v>
+        <v>508.1412244571519</v>
       </c>
       <c r="E14" t="n">
-        <v>364.7230581984146</v>
+        <v>508.1412244571519</v>
       </c>
       <c r="F14" t="n">
-        <v>364.7230581984146</v>
+        <v>508.1412244571519</v>
       </c>
       <c r="G14" t="n">
-        <v>364.7230581984146</v>
+        <v>283.2350032627739</v>
       </c>
       <c r="H14" t="n">
         <v>139.8168370040366</v>
       </c>
       <c r="I14" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J14" t="n">
-        <v>34.05974234075609</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K14" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L14" t="n">
-        <v>239.204631471134</v>
+        <v>239.2046314711343</v>
       </c>
       <c r="M14" t="n">
-        <v>415.5865117704857</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N14" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734929</v>
       </c>
       <c r="O14" t="n">
-        <v>759.7050708974405</v>
+        <v>759.7050708974409</v>
       </c>
       <c r="P14" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237594</v>
       </c>
       <c r="Q14" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R14" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S14" t="n">
-        <v>886.86268555103</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="T14" t="n">
-        <v>886.86268555103</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="U14" t="n">
-        <v>661.9564643566521</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="V14" t="n">
-        <v>661.9564643566521</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="W14" t="n">
-        <v>437.0502431622741</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="X14" t="n">
-        <v>364.7230581984146</v>
+        <v>733.0474456515299</v>
       </c>
       <c r="Y14" t="n">
-        <v>364.7230581984146</v>
+        <v>733.0474456515299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.2860474268797</v>
+        <v>295.4377276446661</v>
       </c>
       <c r="C15" t="n">
-        <v>155.2860474268797</v>
+        <v>295.4377276446661</v>
       </c>
       <c r="D15" t="n">
-        <v>155.2860474268797</v>
+        <v>146.5033179834148</v>
       </c>
       <c r="E15" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F15" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G15" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H15" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I15" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J15" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K15" t="n">
-        <v>80.34372630892088</v>
+        <v>124.7714519989685</v>
       </c>
       <c r="L15" t="n">
-        <v>210.7471202899191</v>
+        <v>255.1748459799667</v>
       </c>
       <c r="M15" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973253</v>
       </c>
       <c r="N15" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510016</v>
       </c>
       <c r="O15" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763799</v>
       </c>
       <c r="P15" t="n">
-        <v>827.4770958375461</v>
+        <v>871.9048215275938</v>
       </c>
       <c r="Q15" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R15" t="n">
-        <v>867.5251443686477</v>
+        <v>867.5251443686475</v>
       </c>
       <c r="S15" t="n">
-        <v>867.5251443686477</v>
+        <v>717.4625377712318</v>
       </c>
       <c r="T15" t="n">
-        <v>670.4065554364599</v>
+        <v>520.3439488390441</v>
       </c>
       <c r="U15" t="n">
-        <v>445.5003342420819</v>
+        <v>520.3439488390441</v>
       </c>
       <c r="V15" t="n">
-        <v>220.5941130477039</v>
+        <v>295.4377276446661</v>
       </c>
       <c r="W15" t="n">
-        <v>155.2860474268797</v>
+        <v>295.4377276446661</v>
       </c>
       <c r="X15" t="n">
-        <v>155.2860474268797</v>
+        <v>295.4377276446661</v>
       </c>
       <c r="Y15" t="n">
-        <v>155.2860474268797</v>
+        <v>295.4377276446661</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164.7025202165051</v>
+        <v>336.8653950588374</v>
       </c>
       <c r="C16" t="n">
-        <v>164.7025202165051</v>
+        <v>167.9292121309305</v>
       </c>
       <c r="D16" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E16" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F16" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G16" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H16" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I16" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J16" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K16" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="L16" t="n">
-        <v>296.7126787168869</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M16" t="n">
-        <v>497.8506719203921</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N16" t="n">
-        <v>699.6406696328909</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O16" t="n">
-        <v>870.0100976634538</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P16" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="Q16" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R16" t="n">
-        <v>758.9414974385975</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S16" t="n">
-        <v>758.9414974385975</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="T16" t="n">
-        <v>571.2572062411227</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="U16" t="n">
-        <v>571.2572062411227</v>
+        <v>665.7224147353587</v>
       </c>
       <c r="V16" t="n">
-        <v>571.2572062411227</v>
+        <v>440.8161935409807</v>
       </c>
       <c r="W16" t="n">
-        <v>346.3509850467448</v>
+        <v>440.8161935409807</v>
       </c>
       <c r="X16" t="n">
-        <v>346.3509850467448</v>
+        <v>440.8161935409807</v>
       </c>
       <c r="Y16" t="n">
-        <v>346.3509850467448</v>
+        <v>336.8653950588374</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>661.9564643566521</v>
+        <v>289.3129731240953</v>
       </c>
       <c r="C17" t="n">
-        <v>589.6292793927926</v>
+        <v>289.3129731240953</v>
       </c>
       <c r="D17" t="n">
-        <v>589.6292793927926</v>
+        <v>289.3129731240953</v>
       </c>
       <c r="E17" t="n">
-        <v>364.7230581984146</v>
+        <v>242.7187939129727</v>
       </c>
       <c r="F17" t="n">
-        <v>139.8168370040366</v>
+        <v>242.7187939129727</v>
       </c>
       <c r="G17" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H17" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I17" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J17" t="n">
-        <v>34.0597423407562</v>
+        <v>34.05974234075592</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L17" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711341</v>
       </c>
       <c r="M17" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704857</v>
       </c>
       <c r="N17" t="n">
-        <v>599.4362436734929</v>
+        <v>599.4362436734921</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974409</v>
+        <v>759.7050708974401</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237594</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R17" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510298</v>
       </c>
       <c r="S17" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728231</v>
       </c>
       <c r="T17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184732</v>
       </c>
       <c r="U17" t="n">
-        <v>661.9564643566521</v>
+        <v>514.2191943184732</v>
       </c>
       <c r="V17" t="n">
-        <v>661.9564643566521</v>
+        <v>514.2191943184732</v>
       </c>
       <c r="W17" t="n">
-        <v>661.9564643566521</v>
+        <v>514.2191943184732</v>
       </c>
       <c r="X17" t="n">
-        <v>661.9564643566521</v>
+        <v>289.3129731240953</v>
       </c>
       <c r="Y17" t="n">
-        <v>661.9564643566521</v>
+        <v>289.3129731240953</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>272.6008565209128</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="C18" t="n">
-        <v>98.14782723978576</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="D18" t="n">
-        <v>98.14782723978576</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="E18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="F18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="G18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="H18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="I18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="J18" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K18" t="n">
         <v>80.34372630892088</v>
@@ -5603,43 +5603,43 @@
         <v>210.7471202899191</v>
       </c>
       <c r="M18" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973253</v>
       </c>
       <c r="N18" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510016</v>
       </c>
       <c r="O18" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763799</v>
       </c>
       <c r="P18" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275938</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R18" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S18" t="n">
-        <v>890.6286359297369</v>
+        <v>740.566029332321</v>
       </c>
       <c r="T18" t="n">
-        <v>890.6286359297369</v>
+        <v>740.566029332321</v>
       </c>
       <c r="U18" t="n">
-        <v>890.6286359297369</v>
+        <v>515.6598081379431</v>
       </c>
       <c r="V18" t="n">
-        <v>665.7224147353588</v>
+        <v>450.5702941185056</v>
       </c>
       <c r="W18" t="n">
-        <v>440.8161935409808</v>
+        <v>225.6640729241276</v>
       </c>
       <c r="X18" t="n">
-        <v>440.8161935409808</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="Y18" t="n">
-        <v>440.8161935409808</v>
+        <v>17.81257271859473</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.249351139374</v>
+        <v>375.158368891586</v>
       </c>
       <c r="C19" t="n">
-        <v>481.249351139374</v>
+        <v>206.222185963679</v>
       </c>
       <c r="D19" t="n">
-        <v>481.249351139374</v>
+        <v>206.222185963679</v>
       </c>
       <c r="E19" t="n">
-        <v>333.3362575569809</v>
+        <v>206.222185963679</v>
       </c>
       <c r="F19" t="n">
-        <v>186.4463100590706</v>
+        <v>206.222185963679</v>
       </c>
       <c r="G19" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="H19" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="I19" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="J19" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859473</v>
       </c>
       <c r="K19" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L19" t="n">
-        <v>198.7269740270977</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M19" t="n">
-        <v>399.8649672306029</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N19" t="n">
-        <v>597.9994122197318</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O19" t="n">
-        <v>768.3688402502947</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P19" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822652</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="R19" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="S19" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297367</v>
       </c>
       <c r="T19" t="n">
-        <v>890.6286359297369</v>
+        <v>781.7130549162036</v>
       </c>
       <c r="U19" t="n">
-        <v>890.6286359297369</v>
+        <v>781.7130549162036</v>
       </c>
       <c r="V19" t="n">
-        <v>890.6286359297369</v>
+        <v>556.8068337218257</v>
       </c>
       <c r="W19" t="n">
-        <v>702.0419302829041</v>
+        <v>556.8068337218257</v>
       </c>
       <c r="X19" t="n">
-        <v>702.0419302829041</v>
+        <v>556.8068337218257</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.249351139374</v>
+        <v>556.8068337218257</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>661.9564643566521</v>
+        <v>212.144021967896</v>
       </c>
       <c r="C20" t="n">
-        <v>661.9564643566521</v>
+        <v>212.144021967896</v>
       </c>
       <c r="D20" t="n">
-        <v>589.6292793927926</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="E20" t="n">
-        <v>364.7230581984146</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="F20" t="n">
         <v>139.8168370040366</v>
@@ -5752,13 +5752,13 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075606</v>
       </c>
       <c r="K20" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L20" t="n">
-        <v>239.2046314711342</v>
+        <v>239.204631471134</v>
       </c>
       <c r="M20" t="n">
         <v>415.5865117704858</v>
@@ -5785,19 +5785,19 @@
         <v>886.86268555103</v>
       </c>
       <c r="U20" t="n">
-        <v>886.86268555103</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="V20" t="n">
-        <v>886.86268555103</v>
+        <v>437.0502431622741</v>
       </c>
       <c r="W20" t="n">
-        <v>886.86268555103</v>
+        <v>212.144021967896</v>
       </c>
       <c r="X20" t="n">
-        <v>661.9564643566521</v>
+        <v>212.144021967896</v>
       </c>
       <c r="Y20" t="n">
-        <v>661.9564643566521</v>
+        <v>212.144021967896</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.81257271859474</v>
+        <v>352.1286118189763</v>
       </c>
       <c r="C21" t="n">
-        <v>17.81257271859474</v>
+        <v>352.1286118189763</v>
       </c>
       <c r="D21" t="n">
-        <v>17.81257271859474</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="E21" t="n">
-        <v>17.81257271859474</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="F21" t="n">
-        <v>17.81257271859474</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="G21" t="n">
-        <v>17.81257271859474</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H21" t="n">
         <v>17.81257271859474</v>
@@ -5831,22 +5831,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J21" t="n">
-        <v>17.81257271859474</v>
+        <v>62.24029840864262</v>
       </c>
       <c r="K21" t="n">
-        <v>80.34372630892088</v>
+        <v>124.7714519989688</v>
       </c>
       <c r="L21" t="n">
-        <v>210.7471202899191</v>
+        <v>255.1748459799669</v>
       </c>
       <c r="M21" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N21" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510018</v>
       </c>
       <c r="O21" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763801</v>
       </c>
       <c r="P21" t="n">
         <v>871.904821527594</v>
@@ -5855,28 +5855,28 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R21" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686477</v>
       </c>
       <c r="S21" t="n">
-        <v>890.6286359297369</v>
+        <v>717.4625377712321</v>
       </c>
       <c r="T21" t="n">
-        <v>890.6286359297369</v>
+        <v>520.3439488390443</v>
       </c>
       <c r="U21" t="n">
-        <v>675.3853138723048</v>
+        <v>520.3439488390443</v>
       </c>
       <c r="V21" t="n">
-        <v>450.4790926779267</v>
+        <v>520.3439488390443</v>
       </c>
       <c r="W21" t="n">
-        <v>225.5728714835487</v>
+        <v>520.3439488390443</v>
       </c>
       <c r="X21" t="n">
-        <v>225.5728714835487</v>
+        <v>520.3439488390443</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.81257271859474</v>
+        <v>520.3439488390443</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="C22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="D22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="E22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="F22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="G22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="H22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="I22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="J22" t="n">
         <v>17.81257271859474</v>
@@ -5925,10 +5925,10 @@
         <v>699.6406696328909</v>
       </c>
       <c r="O22" t="n">
-        <v>767.1575751028232</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P22" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q22" t="n">
         <v>890.6286359297369</v>
@@ -5943,19 +5943,19 @@
         <v>890.6286359297369</v>
       </c>
       <c r="U22" t="n">
-        <v>890.6286359297369</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="V22" t="n">
-        <v>665.7224147353588</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="W22" t="n">
-        <v>440.8161935409808</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X22" t="n">
-        <v>215.9099723466028</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>367.7616091732261</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="C23" t="n">
-        <v>367.7616091732261</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="D23" t="n">
-        <v>367.7616091732261</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="E23" t="n">
-        <v>367.7616091732261</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="F23" t="n">
-        <v>367.7616091732261</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="G23" t="n">
-        <v>271.3207425698045</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H23" t="n">
         <v>19.91160379126067</v>
@@ -5989,22 +5989,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J23" t="n">
-        <v>139.0112959740521</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K23" t="n">
-        <v>214.1001098394048</v>
+        <v>111.2475872787747</v>
       </c>
       <c r="L23" t="n">
-        <v>344.1561851044302</v>
+        <v>241.3036625438001</v>
       </c>
       <c r="M23" t="n">
-        <v>520.538065403782</v>
+        <v>417.6855428431519</v>
       </c>
       <c r="N23" t="n">
-        <v>704.3877973067888</v>
+        <v>601.5352747461586</v>
       </c>
       <c r="O23" t="n">
-        <v>864.6566245307368</v>
+        <v>847.9413716630094</v>
       </c>
       <c r="P23" t="n">
         <v>966.9413597570561</v>
@@ -6016,25 +6016,25 @@
         <v>991.8142391843265</v>
       </c>
       <c r="S23" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="T23" t="n">
-        <v>619.17074795177</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U23" t="n">
-        <v>619.17074795177</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V23" t="n">
-        <v>619.17074795177</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="W23" t="n">
-        <v>367.7616091732261</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="X23" t="n">
-        <v>367.7616091732261</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.7616091732261</v>
+        <v>740.4051004057827</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.02654452499132</v>
+        <v>194.7536757633883</v>
       </c>
       <c r="C24" t="n">
-        <v>73.02654452499132</v>
+        <v>194.7536757633883</v>
       </c>
       <c r="D24" t="n">
-        <v>73.02654452499132</v>
+        <v>194.7536757633883</v>
       </c>
       <c r="E24" t="n">
-        <v>73.02654452499132</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="F24" t="n">
-        <v>73.02654452499132</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="G24" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="H24" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I24" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J24" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439773</v>
       </c>
       <c r="K24" t="n">
-        <v>229.7230056322652</v>
+        <v>198.1317383343035</v>
       </c>
       <c r="L24" t="n">
-        <v>360.1263996132634</v>
+        <v>328.5351323153017</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6578778306221</v>
+        <v>500.0666105326603</v>
       </c>
       <c r="N24" t="n">
-        <v>722.1379287842983</v>
+        <v>690.5466614863366</v>
       </c>
       <c r="O24" t="n">
-        <v>874.1701669096766</v>
+        <v>842.5788996117149</v>
       </c>
       <c r="P24" t="n">
-        <v>976.8563751608905</v>
+        <v>945.2651078629287</v>
       </c>
       <c r="Q24" t="n">
         <v>995.5801895630334</v>
@@ -6095,25 +6095,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S24" t="n">
-        <v>995.5801895630334</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="T24" t="n">
-        <v>995.5801895630334</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="U24" t="n">
-        <v>767.4392917408106</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="V24" t="n">
-        <v>532.287183509068</v>
+        <v>610.3654747338751</v>
       </c>
       <c r="W24" t="n">
-        <v>280.8780447305242</v>
+        <v>610.3654747338751</v>
       </c>
       <c r="X24" t="n">
-        <v>73.02654452499132</v>
+        <v>402.5139745283423</v>
       </c>
       <c r="Y24" t="n">
-        <v>73.02654452499132</v>
+        <v>194.7536757633883</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.68747969586914</v>
+        <v>188.8477867191676</v>
       </c>
       <c r="C25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I25" t="n">
-        <v>39.68747969586914</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="J25" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="K25" t="n">
-        <v>117.8973084810497</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L25" t="n">
-        <v>298.8117097895527</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9497029930578</v>
+        <v>499.9497029930581</v>
       </c>
       <c r="N25" t="n">
-        <v>701.7397007055567</v>
+        <v>701.7397007055569</v>
       </c>
       <c r="O25" t="n">
-        <v>872.1091287361197</v>
+        <v>872.1091287361198</v>
       </c>
       <c r="P25" t="n">
-        <v>994.3689244155619</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q25" t="n">
         <v>995.5801895630334</v>
@@ -6174,25 +6174,25 @@
         <v>863.893051071894</v>
       </c>
       <c r="S25" t="n">
-        <v>739.8787485159604</v>
+        <v>863.893051071894</v>
       </c>
       <c r="T25" t="n">
-        <v>739.8787485159604</v>
+        <v>863.893051071894</v>
       </c>
       <c r="U25" t="n">
-        <v>739.8787485159604</v>
+        <v>612.4839122933502</v>
       </c>
       <c r="V25" t="n">
-        <v>488.4696097374166</v>
+        <v>612.4839122933502</v>
       </c>
       <c r="W25" t="n">
-        <v>488.4696097374166</v>
+        <v>612.4839122933502</v>
       </c>
       <c r="X25" t="n">
-        <v>260.4800588393992</v>
+        <v>384.4943613953328</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.68747969586914</v>
+        <v>188.8477867191676</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>622.9366983304767</v>
+        <v>740.4051004057827</v>
       </c>
       <c r="C26" t="n">
-        <v>622.9366983304767</v>
+        <v>740.4051004057827</v>
       </c>
       <c r="D26" t="n">
-        <v>622.9366983304767</v>
+        <v>740.4051004057827</v>
       </c>
       <c r="E26" t="n">
-        <v>622.9366983304767</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="F26" t="n">
-        <v>622.9366983304767</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="G26" t="n">
-        <v>393.3250068552463</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H26" t="n">
-        <v>141.9158680767025</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I26" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J26" t="n">
-        <v>139.0112959740521</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K26" t="n">
-        <v>214.1001098394048</v>
+        <v>111.2475872787747</v>
       </c>
       <c r="L26" t="n">
-        <v>344.1561851044302</v>
+        <v>241.3036625438001</v>
       </c>
       <c r="M26" t="n">
-        <v>520.538065403782</v>
+        <v>417.6855428431519</v>
       </c>
       <c r="N26" t="n">
-        <v>704.3877973067888</v>
+        <v>601.5352747461586</v>
       </c>
       <c r="O26" t="n">
-        <v>864.6566245307368</v>
+        <v>761.8041019701067</v>
       </c>
       <c r="P26" t="n">
-        <v>966.9413597570561</v>
+        <v>864.088837196426</v>
       </c>
       <c r="Q26" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R26" t="n">
-        <v>995.5801895630334</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="S26" t="n">
-        <v>837.9989992848266</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="T26" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U26" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V26" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="W26" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="X26" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y26" t="n">
-        <v>622.9366983304767</v>
+        <v>740.4051004057827</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>619.6045537780115</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="C27" t="n">
-        <v>452.8540461339119</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="D27" t="n">
-        <v>303.9196364726606</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="E27" t="n">
-        <v>303.9196364726606</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="F27" t="n">
-        <v>157.3850784995456</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="G27" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="H27" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I27" t="n">
         <v>19.91160379126067</v>
@@ -6338,19 +6338,19 @@
         <v>995.5801895630334</v>
       </c>
       <c r="U27" t="n">
-        <v>995.5801895630334</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V27" t="n">
-        <v>995.5801895630334</v>
+        <v>733.9418063566798</v>
       </c>
       <c r="W27" t="n">
-        <v>995.5801895630334</v>
+        <v>482.5326675781359</v>
       </c>
       <c r="X27" t="n">
-        <v>995.5801895630334</v>
+        <v>274.6811673726031</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.8198907980795</v>
+        <v>66.92086860764923</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.91160379126067</v>
+        <v>410.1593998693886</v>
       </c>
       <c r="C28" t="n">
-        <v>19.91160379126067</v>
+        <v>410.1593998693886</v>
       </c>
       <c r="D28" t="n">
-        <v>19.91160379126067</v>
+        <v>334.4905207761726</v>
       </c>
       <c r="E28" t="n">
-        <v>19.91160379126067</v>
+        <v>186.5774271937795</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="H28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="I28" t="n">
-        <v>19.91160379126067</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="J28" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="K28" t="n">
-        <v>117.8973084810498</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L28" t="n">
         <v>298.8117097895529</v>
@@ -6408,28 +6408,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R28" t="n">
-        <v>995.5801895630334</v>
+        <v>863.893051071894</v>
       </c>
       <c r="S28" t="n">
-        <v>995.5801895630334</v>
+        <v>863.893051071894</v>
       </c>
       <c r="T28" t="n">
-        <v>769.8360892585454</v>
+        <v>638.1489507674059</v>
       </c>
       <c r="U28" t="n">
-        <v>518.4269504800016</v>
+        <v>638.1489507674059</v>
       </c>
       <c r="V28" t="n">
-        <v>267.0178117014577</v>
+        <v>638.1489507674059</v>
       </c>
       <c r="W28" t="n">
-        <v>19.91160379126067</v>
+        <v>638.1489507674059</v>
       </c>
       <c r="X28" t="n">
-        <v>19.91160379126067</v>
+        <v>410.1593998693886</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.91160379126067</v>
+        <v>410.1593998693886</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>271.3207425698045</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="C29" t="n">
-        <v>271.3207425698045</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="D29" t="n">
-        <v>271.3207425698045</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="E29" t="n">
-        <v>19.91160379126067</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="F29" t="n">
         <v>19.91160379126067</v>
@@ -6463,16 +6463,16 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J29" t="n">
-        <v>36.158773413422</v>
+        <v>139.0112959740521</v>
       </c>
       <c r="K29" t="n">
-        <v>111.2475872787747</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L29" t="n">
-        <v>241.3036625438001</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M29" t="n">
-        <v>457.9817003899381</v>
+        <v>520.538065403782</v>
       </c>
       <c r="N29" t="n">
         <v>704.3877973067888</v>
@@ -6490,25 +6490,25 @@
         <v>991.8142391843265</v>
       </c>
       <c r="S29" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="T29" t="n">
-        <v>834.2330489061198</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U29" t="n">
-        <v>774.1390201268921</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V29" t="n">
-        <v>774.1390201268921</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="W29" t="n">
-        <v>522.7298813483483</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="X29" t="n">
-        <v>271.3207425698045</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.3207425698045</v>
+        <v>740.4051004057827</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>37.27125001666531</v>
+        <v>480.1836570133619</v>
       </c>
       <c r="C30" t="n">
-        <v>19.91160379126067</v>
+        <v>305.7306277322349</v>
       </c>
       <c r="D30" t="n">
-        <v>19.91160379126067</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="E30" t="n">
-        <v>19.91160379126067</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="F30" t="n">
-        <v>19.91160379126067</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="G30" t="n">
-        <v>19.91160379126067</v>
+        <v>121.1373785879038</v>
       </c>
       <c r="H30" t="n">
         <v>19.91160379126067</v>
@@ -6542,25 +6542,25 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J30" t="n">
-        <v>135.6005847439773</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K30" t="n">
-        <v>198.1317383343035</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L30" t="n">
-        <v>328.5351323153017</v>
+        <v>212.846151362585</v>
       </c>
       <c r="M30" t="n">
-        <v>500.0666105326603</v>
+        <v>384.3776295799436</v>
       </c>
       <c r="N30" t="n">
-        <v>690.5466614863366</v>
+        <v>574.8576805336198</v>
       </c>
       <c r="O30" t="n">
-        <v>842.5788996117149</v>
+        <v>726.8899186589981</v>
       </c>
       <c r="P30" t="n">
-        <v>945.2651078629287</v>
+        <v>829.576126910212</v>
       </c>
       <c r="Q30" t="n">
         <v>995.5801895630334</v>
@@ -6578,16 +6578,16 @@
         <v>648.39899403343</v>
       </c>
       <c r="V30" t="n">
-        <v>413.2468858016873</v>
+        <v>648.39899403343</v>
       </c>
       <c r="W30" t="n">
-        <v>413.2468858016873</v>
+        <v>648.39899403343</v>
       </c>
       <c r="X30" t="n">
-        <v>413.2468858016873</v>
+        <v>648.39899403343</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.4865870367333</v>
+        <v>648.39899403343</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.36934687121803</v>
+        <v>267.0178117014577</v>
       </c>
       <c r="C31" t="n">
-        <v>85.36934687121803</v>
+        <v>267.0178117014577</v>
       </c>
       <c r="D31" t="n">
-        <v>85.36934687121803</v>
+        <v>267.0178117014577</v>
       </c>
       <c r="E31" t="n">
-        <v>85.36934687121803</v>
+        <v>267.0178117014577</v>
       </c>
       <c r="F31" t="n">
-        <v>85.36934687121803</v>
+        <v>188.5453411317365</v>
       </c>
       <c r="G31" t="n">
-        <v>85.36934687121803</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H31" t="n">
-        <v>85.36934687121803</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I31" t="n">
         <v>19.91160379126067</v>
@@ -6624,19 +6624,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L31" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M31" t="n">
-        <v>499.949702993058</v>
+        <v>499.9497029930579</v>
       </c>
       <c r="N31" t="n">
         <v>701.7397007055567</v>
       </c>
       <c r="O31" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361197</v>
       </c>
       <c r="P31" t="n">
         <v>994.3689244155619</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>522.7298813483483</v>
+        <v>331.4147713490322</v>
       </c>
       <c r="C32" t="n">
-        <v>271.3207425698045</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="D32" t="n">
-        <v>271.3207425698045</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="E32" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="F32" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="G32" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="H32" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="I32" t="n">
         <v>19.91160379126067</v>
@@ -6742,10 +6742,10 @@
         <v>834.2330489061198</v>
       </c>
       <c r="X32" t="n">
-        <v>774.1390201268921</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="Y32" t="n">
-        <v>522.7298813483483</v>
+        <v>582.823910127576</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.3646330723877</v>
+        <v>411.7530535724787</v>
       </c>
       <c r="C33" t="n">
-        <v>19.91160379126067</v>
+        <v>237.3000242913517</v>
       </c>
       <c r="D33" t="n">
-        <v>19.91160379126067</v>
+        <v>226.1583236131047</v>
       </c>
       <c r="E33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="F33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="G33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="H33" t="n">
-        <v>19.91160379126067</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="I33" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J33" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439773</v>
       </c>
       <c r="K33" t="n">
-        <v>82.4427573815868</v>
+        <v>229.7230056322652</v>
       </c>
       <c r="L33" t="n">
-        <v>265.7525408217909</v>
+        <v>360.1263996132634</v>
       </c>
       <c r="M33" t="n">
-        <v>437.2840190391496</v>
+        <v>531.6578778306221</v>
       </c>
       <c r="N33" t="n">
-        <v>627.7640699928259</v>
+        <v>722.1379287842983</v>
       </c>
       <c r="O33" t="n">
         <v>874.1701669096766</v>
@@ -6803,28 +6803,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R33" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S33" t="n">
-        <v>822.4140914045286</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T33" t="n">
-        <v>625.2955024723408</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U33" t="n">
-        <v>625.2955024723408</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="V33" t="n">
-        <v>625.2955024723408</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="W33" t="n">
-        <v>570.4314702979885</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="X33" t="n">
-        <v>362.5799700924557</v>
+        <v>787.7286893575006</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.5799700924557</v>
+        <v>579.9683905925467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>492.7619120059458</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="C34" t="n">
-        <v>492.7619120059458</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="D34" t="n">
-        <v>342.64527259361</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="E34" t="n">
-        <v>194.7321790112169</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="F34" t="n">
-        <v>194.7321790112169</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="G34" t="n">
-        <v>26.09844167074107</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="H34" t="n">
-        <v>26.09844167074107</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="I34" t="n">
-        <v>26.09844167074107</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="J34" t="n">
         <v>19.91160379126067</v>
@@ -6876,34 +6876,34 @@
         <v>872.1091287361198</v>
       </c>
       <c r="P34" t="n">
-        <v>994.3689244155619</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q34" t="n">
-        <v>995.5801895630334</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="R34" t="n">
-        <v>995.5801895630334</v>
+        <v>863.8930510718941</v>
       </c>
       <c r="S34" t="n">
-        <v>995.5801895630334</v>
+        <v>863.8930510718941</v>
       </c>
       <c r="T34" t="n">
-        <v>995.5801895630334</v>
+        <v>793.9148960315006</v>
       </c>
       <c r="U34" t="n">
-        <v>744.1710507844896</v>
+        <v>542.5057572529568</v>
       </c>
       <c r="V34" t="n">
-        <v>492.7619120059458</v>
+        <v>291.0966184744129</v>
       </c>
       <c r="W34" t="n">
-        <v>492.7619120059458</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="X34" t="n">
-        <v>492.7619120059458</v>
+        <v>39.68747969586914</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.7619120059458</v>
+        <v>39.68747969586914</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>242.7187939129728</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="C35" t="n">
-        <v>242.7187939129728</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="D35" t="n">
-        <v>242.7187939129728</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="E35" t="n">
-        <v>242.7187939129728</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="F35" t="n">
-        <v>242.7187939129728</v>
+        <v>437.050243162274</v>
       </c>
       <c r="G35" t="n">
-        <v>17.81257271859474</v>
+        <v>212.144021967896</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I35" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J35" t="n">
-        <v>34.0597423407562</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061084</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M35" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N35" t="n">
-        <v>599.4362436734929</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974409</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R35" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S35" t="n">
-        <v>733.0474456515301</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="T35" t="n">
-        <v>517.9851446971802</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U35" t="n">
-        <v>293.0789235028022</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="V35" t="n">
-        <v>293.0789235028022</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="W35" t="n">
-        <v>293.0789235028022</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="X35" t="n">
-        <v>293.0789235028022</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="Y35" t="n">
-        <v>242.7187939129728</v>
+        <v>886.8626855510302</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.82183753498329</v>
+        <v>239.2748668161103</v>
       </c>
       <c r="C36" t="n">
         <v>64.82183753498329</v>
@@ -7016,52 +7016,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J36" t="n">
-        <v>62.24029840864262</v>
+        <v>62.24029840864273</v>
       </c>
       <c r="K36" t="n">
-        <v>124.7714519989688</v>
+        <v>124.7714519989689</v>
       </c>
       <c r="L36" t="n">
-        <v>255.1748459799669</v>
+        <v>255.174845979967</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973256</v>
+        <v>426.7063241973257</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510018</v>
+        <v>617.1863751510019</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763801</v>
+        <v>769.2186132763802</v>
       </c>
       <c r="P36" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275941</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R36" t="n">
-        <v>867.5251443686477</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="S36" t="n">
-        <v>717.4625377712321</v>
+        <v>717.4625377712322</v>
       </c>
       <c r="T36" t="n">
-        <v>520.3439488390443</v>
+        <v>717.4625377712322</v>
       </c>
       <c r="U36" t="n">
-        <v>295.4377276446663</v>
+        <v>717.4625377712322</v>
       </c>
       <c r="V36" t="n">
-        <v>70.53150645028825</v>
+        <v>717.4625377712322</v>
       </c>
       <c r="W36" t="n">
-        <v>70.53150645028825</v>
+        <v>717.4625377712322</v>
       </c>
       <c r="X36" t="n">
-        <v>64.82183753498329</v>
+        <v>509.6110375656993</v>
       </c>
       <c r="Y36" t="n">
-        <v>64.82183753498329</v>
+        <v>407.4902038361784</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>481.5517967268052</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C37" t="n">
-        <v>312.6156137988982</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D37" t="n">
-        <v>312.6156137988982</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E37" t="n">
-        <v>164.7025202165051</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F37" t="n">
         <v>17.81257271859474</v>
@@ -7113,34 +7113,34 @@
         <v>772.0243929736647</v>
       </c>
       <c r="P37" t="n">
-        <v>889.4173707822654</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R37" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S37" t="n">
-        <v>706.4580179211832</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="T37" t="n">
-        <v>481.5517967268052</v>
+        <v>463.5113730565029</v>
       </c>
       <c r="U37" t="n">
-        <v>481.5517967268052</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="V37" t="n">
-        <v>481.5517967268052</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="W37" t="n">
-        <v>481.5517967268052</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="X37" t="n">
-        <v>481.5517967268052</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="Y37" t="n">
-        <v>481.5517967268052</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.6250151073508</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="C38" t="n">
-        <v>242.7187939129728</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="D38" t="n">
-        <v>17.81257271859474</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="E38" t="n">
-        <v>17.81257271859474</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="F38" t="n">
-        <v>17.81257271859474</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="G38" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="H38" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I38" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K38" t="n">
         <v>109.1485562061088</v>
@@ -7183,13 +7183,13 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M38" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N38" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974405</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P38" t="n">
         <v>861.9898061237598</v>
@@ -7204,22 +7204,22 @@
         <v>886.8626855510302</v>
       </c>
       <c r="T38" t="n">
-        <v>692.5312363017289</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U38" t="n">
-        <v>467.6250151073508</v>
+        <v>814.5355005871708</v>
       </c>
       <c r="V38" t="n">
-        <v>467.6250151073508</v>
+        <v>814.5355005871708</v>
       </c>
       <c r="W38" t="n">
-        <v>467.6250151073508</v>
+        <v>814.5355005871708</v>
       </c>
       <c r="X38" t="n">
-        <v>467.6250151073508</v>
+        <v>814.5355005871708</v>
       </c>
       <c r="Y38" t="n">
-        <v>467.6250151073508</v>
+        <v>589.6292793927927</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.63499801137735</v>
+        <v>166.746982379846</v>
       </c>
       <c r="C39" t="n">
-        <v>93.63499801137735</v>
+        <v>166.746982379846</v>
       </c>
       <c r="D39" t="n">
-        <v>93.63499801137735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E39" t="n">
-        <v>93.63499801137735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F39" t="n">
-        <v>93.63499801137735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G39" t="n">
         <v>17.81257271859474</v>
@@ -7292,13 +7292,13 @@
         <v>318.5412192057554</v>
       </c>
       <c r="W39" t="n">
-        <v>93.63499801137735</v>
+        <v>318.5412192057554</v>
       </c>
       <c r="X39" t="n">
-        <v>93.63499801137735</v>
+        <v>318.5412192057554</v>
       </c>
       <c r="Y39" t="n">
-        <v>93.63499801137735</v>
+        <v>318.5412192057554</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.306313132196</v>
+        <v>51.25878389185476</v>
       </c>
       <c r="C40" t="n">
-        <v>172.306313132196</v>
+        <v>51.25878389185476</v>
       </c>
       <c r="D40" t="n">
-        <v>172.306313132196</v>
+        <v>51.25878389185476</v>
       </c>
       <c r="E40" t="n">
-        <v>172.306313132196</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F40" t="n">
-        <v>172.306313132196</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G40" t="n">
-        <v>172.306313132196</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H40" t="n">
         <v>17.81257271859474</v>
@@ -7344,13 +7344,13 @@
         <v>399.8649672306029</v>
       </c>
       <c r="N40" t="n">
-        <v>597.9994122197319</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O40" t="n">
-        <v>768.3688402502949</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P40" t="n">
-        <v>890.628635929737</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q40" t="n">
         <v>890.628635929737</v>
@@ -7359,25 +7359,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S40" t="n">
-        <v>847.0249767153302</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="T40" t="n">
-        <v>622.1187555209522</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="U40" t="n">
-        <v>397.2125343265741</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="V40" t="n">
-        <v>172.306313132196</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="W40" t="n">
-        <v>172.306313132196</v>
+        <v>232.9072487220945</v>
       </c>
       <c r="X40" t="n">
-        <v>172.306313132196</v>
+        <v>232.9072487220945</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.306313132196</v>
+        <v>232.9072487220945</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C41" t="n">
-        <v>289.3129731240954</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D41" t="n">
-        <v>289.3129731240954</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E41" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F41" t="n">
         <v>17.81257271859474</v>
@@ -7411,22 +7411,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K41" t="n">
         <v>109.1485562061088</v>
       </c>
       <c r="L41" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M41" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N41" t="n">
         <v>599.4362436734924</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974406</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P41" t="n">
         <v>861.9898061237598</v>
@@ -7435,28 +7435,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R41" t="n">
-        <v>886.8626855510302</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S41" t="n">
-        <v>729.2814952728233</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T41" t="n">
-        <v>514.2191943184735</v>
+        <v>675.5663349753871</v>
       </c>
       <c r="U41" t="n">
-        <v>514.2191943184735</v>
+        <v>675.5663349753871</v>
       </c>
       <c r="V41" t="n">
-        <v>514.2191943184735</v>
+        <v>450.660113781009</v>
       </c>
       <c r="W41" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="X41" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="Y41" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>471.819625310197</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C42" t="n">
-        <v>471.819625310197</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D42" t="n">
-        <v>471.819625310197</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E42" t="n">
-        <v>312.5821703047415</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F42" t="n">
-        <v>166.0476123316264</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G42" t="n">
-        <v>166.0476123316264</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H42" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I42" t="n">
         <v>17.81257271859474</v>
@@ -7496,13 +7496,13 @@
         <v>80.34372630892088</v>
       </c>
       <c r="L42" t="n">
-        <v>255.174845979967</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7063241973257</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510019</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O42" t="n">
         <v>769.2186132763802</v>
@@ -7514,28 +7514,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R42" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S42" t="n">
-        <v>717.4625377712322</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T42" t="n">
-        <v>520.3439488390443</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U42" t="n">
-        <v>471.819625310197</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="V42" t="n">
-        <v>471.819625310197</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W42" t="n">
-        <v>471.819625310197</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X42" t="n">
-        <v>471.819625310197</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y42" t="n">
-        <v>471.819625310197</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.81257271859474</v>
+        <v>525.2750083039217</v>
       </c>
       <c r="C43" t="n">
-        <v>17.81257271859474</v>
+        <v>356.3388253760148</v>
       </c>
       <c r="D43" t="n">
-        <v>17.81257271859474</v>
+        <v>206.222185963679</v>
       </c>
       <c r="E43" t="n">
-        <v>17.81257271859474</v>
+        <v>206.222185963679</v>
       </c>
       <c r="F43" t="n">
-        <v>17.81257271859474</v>
+        <v>206.222185963679</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="H43" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="I43" t="n">
-        <v>17.81257271859474</v>
+        <v>37.58844862320321</v>
       </c>
       <c r="J43" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="K43" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L43" t="n">
-        <v>198.7269740270977</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M43" t="n">
-        <v>399.8649672306029</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N43" t="n">
-        <v>601.6549649431017</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O43" t="n">
-        <v>768.3688402502949</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P43" t="n">
-        <v>890.628635929737</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q43" t="n">
         <v>890.628635929737</v>
@@ -7596,25 +7596,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S43" t="n">
-        <v>682.7196911108506</v>
+        <v>750.1812294982998</v>
       </c>
       <c r="T43" t="n">
-        <v>457.8134699164725</v>
+        <v>750.1812294982998</v>
       </c>
       <c r="U43" t="n">
-        <v>242.7187939129728</v>
+        <v>750.1812294982998</v>
       </c>
       <c r="V43" t="n">
-        <v>17.81257271859474</v>
+        <v>750.1812294982998</v>
       </c>
       <c r="W43" t="n">
-        <v>17.81257271859474</v>
+        <v>525.2750083039217</v>
       </c>
       <c r="X43" t="n">
-        <v>17.81257271859474</v>
+        <v>525.2750083039217</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.81257271859474</v>
+        <v>525.2750083039217</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C44" t="n">
         <v>242.7187939129728</v>
@@ -7633,13 +7633,13 @@
         <v>242.7187939129728</v>
       </c>
       <c r="E44" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F44" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G44" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H44" t="n">
         <v>17.81257271859474</v>
@@ -7675,22 +7675,22 @@
         <v>890.628635929737</v>
       </c>
       <c r="S44" t="n">
-        <v>890.628635929737</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="T44" t="n">
-        <v>890.628635929737</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="U44" t="n">
-        <v>665.7224147353589</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="V44" t="n">
-        <v>665.7224147353589</v>
+        <v>733.0474456515303</v>
       </c>
       <c r="W44" t="n">
-        <v>665.7224147353589</v>
+        <v>508.1412244571522</v>
       </c>
       <c r="X44" t="n">
-        <v>665.7224147353589</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y44" t="n">
         <v>467.6250151073508</v>
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.220457088131</v>
+        <v>25.20439457049412</v>
       </c>
       <c r="C45" t="n">
-        <v>304.220457088131</v>
+        <v>25.20439457049412</v>
       </c>
       <c r="D45" t="n">
-        <v>155.2860474268797</v>
+        <v>25.20439457049412</v>
       </c>
       <c r="E45" t="n">
-        <v>155.2860474268797</v>
+        <v>25.20439457049412</v>
       </c>
       <c r="F45" t="n">
-        <v>155.2860474268797</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G45" t="n">
         <v>17.81257271859474</v>
@@ -7730,13 +7730,13 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K45" t="n">
-        <v>124.7714519989689</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L45" t="n">
-        <v>255.174845979967</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7063241973257</v>
+        <v>396.755787758392</v>
       </c>
       <c r="N45" t="n">
         <v>617.1863751510019</v>
@@ -7751,28 +7751,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R45" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S45" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T45" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U45" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="V45" t="n">
-        <v>867.5251443686478</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="W45" t="n">
-        <v>867.5251443686478</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="X45" t="n">
-        <v>659.673644163115</v>
+        <v>232.964693335448</v>
       </c>
       <c r="Y45" t="n">
-        <v>472.435794108199</v>
+        <v>25.20439457049412</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>326.1263314253331</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1263314253331</v>
+        <v>617.2259936248353</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1263314253331</v>
+        <v>467.1093542124995</v>
       </c>
       <c r="E46" t="n">
-        <v>178.21323784294</v>
+        <v>319.1962606301064</v>
       </c>
       <c r="F46" t="n">
-        <v>37.58844862320321</v>
+        <v>172.306313132196</v>
       </c>
       <c r="G46" t="n">
-        <v>37.58844862320321</v>
+        <v>172.306313132196</v>
       </c>
       <c r="H46" t="n">
-        <v>37.58844862320321</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I46" t="n">
-        <v>37.58844862320321</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J46" t="n">
         <v>17.81257271859474</v>
@@ -7821,7 +7821,7 @@
         <v>601.6549649431017</v>
       </c>
       <c r="O46" t="n">
-        <v>767.1575751028233</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P46" t="n">
         <v>889.4173707822655</v>
@@ -7830,28 +7830,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R46" t="n">
-        <v>758.9414974385976</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S46" t="n">
-        <v>551.0325526197112</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="T46" t="n">
-        <v>551.0325526197112</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="U46" t="n">
-        <v>551.0325526197112</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="V46" t="n">
-        <v>326.1263314253331</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="W46" t="n">
-        <v>326.1263314253331</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="X46" t="n">
-        <v>326.1263314253331</v>
+        <v>682.7196911108506</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.1263314253331</v>
+        <v>682.7196911108506</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>54.10996941852118</v>
+        <v>54.10996941852095</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>173.5936832621308</v>
       </c>
       <c r="N13" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>59.15022943595255</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -9008,7 +9008,7 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.87649059600773</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.87649059600794</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>32.33862653307233</v>
+        <v>131.3140858156874</v>
       </c>
       <c r="Q16" t="n">
         <v>64.11945822879035</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>44.87649059600773</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.8764905960079</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9333,16 +9333,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>168.1252393461083</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>31.11512638411097</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>9.23347882251322</v>
+        <v>54.10996941852118</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>44.8764905960079</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>59.15022943595255</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>32.33862653307233</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>103.8914369299294</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>87.00734312414411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>16.88409380578535</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>9.23347882251322</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>148.7679275259378</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>31.91037100804217</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9816,7 +9816,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775137</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>103.8914369299294</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>103.8914369299295</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>103.8914369299294</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>40.70318944119813</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>63.18824748873129</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.91037100804217</v>
+        <v>148.7679275259379</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>9.23347882251322</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>31.91037100804219</v>
       </c>
       <c r="L33" t="n">
-        <v>53.44079743354138</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>95.32713009239643</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>54.10996941852118</v>
+        <v>54.1099694185213</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>130.0905856667265</v>
+        <v>130.0905856667266</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10992,16 +10992,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>168.1252393461085</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667266</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>44.87649059600807</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>44.87649059600804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11232,13 +11232,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>159.3491888675291</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>31.11512638411131</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>9.23347882251322</v>
       </c>
       <c r="K45" t="n">
-        <v>44.87649059600808</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>14.62342348597406</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>30.25306711003401</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>158.125688718568</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0905856667266</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>243.6746763510315</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592773</v>
       </c>
       <c r="G11" t="n">
-        <v>366.8480188581282</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H11" t="n">
-        <v>92.99156715471236</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I11" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U11" t="n">
         <v>251.1595344087969</v>
       </c>
       <c r="V11" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V12" t="n">
-        <v>139.4140272613222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>87.46625505645271</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.9488030094653</v>
+        <v>80.75478793560225</v>
       </c>
       <c r="I13" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>19.57811714556239</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S13" t="n">
-        <v>140.0836968451975</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.829500319008929</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U13" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>63.86583935415678</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>132.0258826382488</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H14" t="n">
-        <v>92.99156715471236</v>
+        <v>173.6647415409966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S14" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U14" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>298.1271875642482</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>30.24124264322906</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H15" t="n">
         <v>100.2135170486767</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.202329861566341</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V15" t="n">
-        <v>10.14342816699104</v>
+        <v>10.1434281669911</v>
       </c>
       <c r="W15" t="n">
-        <v>187.0399981963036</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.947399967071</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
-        <v>37.67921101594317</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179919</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139383</v>
       </c>
       <c r="W16" t="n">
-        <v>63.86583935415678</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.6733628547729</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>293.6689786567866</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2732110898276</v>
+        <v>335.8021326532505</v>
       </c>
       <c r="F17" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H17" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960349</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>78.11317847942185</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,22 +23861,22 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S18" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566398</v>
       </c>
       <c r="V18" t="n">
-        <v>10.14342816699104</v>
+        <v>168.3619682701822</v>
       </c>
       <c r="W18" t="n">
-        <v>29.03782417848538</v>
+        <v>29.03782417848544</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>223.4866593014432</v>
+        <v>115.6602340980455</v>
       </c>
       <c r="U19" t="n">
         <v>286.2621068442334</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139383</v>
       </c>
       <c r="W19" t="n">
-        <v>99.82215974622653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>283.079128506462</v>
+        <v>283.0791285064621</v>
       </c>
       <c r="E20" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>412.9762562771396</v>
@@ -24025,16 +24025,16 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636265</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349788</v>
       </c>
       <c r="X20" t="n">
-        <v>147.0739416960348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>52.78444386513985</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>46.53917216822466</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>12.76860000714277</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V21" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>29.03782417848538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J22" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>223.4866593014432</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V22" t="n">
         <v>29.48048434139378</v>
@@ -24192,10 +24192,10 @@
         <v>63.86583935415678</v>
       </c>
       <c r="X22" t="n">
-        <v>3.052496406602927</v>
+        <v>49.17134690287156</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.46822772036683</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>157.9809983509531</v>
       </c>
       <c r="G23" t="n">
-        <v>317.4997983397521</v>
+        <v>197.4777894102795</v>
       </c>
       <c r="H23" t="n">
-        <v>66.75367874638823</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I23" t="n">
         <v>120.7842216425874</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U23" t="n">
         <v>251.1595344087969</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>100.3459213266547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="24">
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>31.09060137121922</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>83.51494863480872</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H24" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I24" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S24" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2.799935770161255</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24387,7 +24387,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>83.0556958403233</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
         <v>223.4866593014432</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2621068442334</v>
+        <v>37.36705945347501</v>
       </c>
       <c r="V25" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>24.89454442269121</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>157.9809983509531</v>
       </c>
       <c r="G26" t="n">
-        <v>185.6606817166616</v>
+        <v>197.4777894102795</v>
       </c>
       <c r="H26" t="n">
-        <v>66.75367874638823</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U26" t="n">
         <v>251.1595344087969</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>7.625496420657186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H27" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I27" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>199.6380766191357</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>73.70328271592852</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.947399967071</v>
@@ -24624,7 +24624,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J28" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>205.8298553706975</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>37.36705945347501</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V28" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>41.88785250549591</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,7 +24691,7 @@
         <v>133.0353226815034</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>191.3775788748513</v>
       </c>
       <c r="G29" t="n">
         <v>412.9762562771396</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T29" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U29" t="n">
-        <v>191.6664459173614</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>100.3459213266547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>120.8360532877107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="30">
@@ -24761,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>155.5224492251651</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>100.796488872953</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>46.53917216822466</v>
@@ -24818,7 +24818,7 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>67.73330215890721</v>
       </c>
       <c r="G31" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.9488030094653</v>
       </c>
       <c r="I31" t="n">
-        <v>59.26403085345947</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J31" t="n">
         <v>19.57811714556239</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C32" t="n">
-        <v>116.3778443802492</v>
+        <v>177.6689775314012</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>133.0353226815034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>315.6487261371466</v>
       </c>
       <c r="I32" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>310.2380121870336</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>137.3428912652952</v>
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>136.4147818931743</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25016,7 +25016,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I33" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
         <v>225.8594888440006</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>197.3795913083109</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H34" t="n">
         <v>152.9488030094653</v>
@@ -25098,7 +25098,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J34" t="n">
-        <v>13.45314764487679</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4866593014432</v>
+        <v>154.2082858114536</v>
       </c>
       <c r="U34" t="n">
         <v>37.36705945347501</v>
@@ -25137,7 +25137,7 @@
         <v>3.242595933069651</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>37.62795094583265</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898275</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G35" t="n">
         <v>190.3190972947054</v>
       </c>
       <c r="H35" t="n">
-        <v>315.6487261371466</v>
+        <v>244.0448130229258</v>
       </c>
       <c r="I35" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.3814103621224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>3.202329861566341</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V36" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>200.1204129773256</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>104.5830703850786</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.947399967071</v>
@@ -25362,13 +25362,13 @@
         <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>23.50094354222938</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.829500319008929</v>
+        <v>6.470424427638903</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2621068442334</v>
+        <v>63.6049478617991</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810463</v>
       </c>
       <c r="C38" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>132.0258826382487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H38" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I38" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T38" t="n">
-        <v>20.52354318799814</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U38" t="n">
-        <v>28.50237542636262</v>
+        <v>179.5556212945761</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>16.25688919221705</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>61.03453892134728</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H39" t="n">
         <v>100.2135170486767</v>
@@ -25532,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>29.03782417848535</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>113.3222135850418</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.947399967071</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I40" t="n">
         <v>124.0671965026173</v>
@@ -25599,19 +25599,19 @@
         <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
-        <v>162.6622327484348</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0.8295003190089005</v>
       </c>
       <c r="U40" t="n">
-        <v>63.6049478617991</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V40" t="n">
-        <v>29.48048434139375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415675</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>335.8021326532504</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>412.9762562771396</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.3790620480571</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.0987399612021</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
-        <v>177.8204085504417</v>
+        <v>3.202329861566312</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>9.656559571749483</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.9488030094653</v>
@@ -25809,7 +25809,7 @@
         <v>124.0671965026173</v>
       </c>
       <c r="J43" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>130.370267106228</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>66.78692300357466</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8295003190089005</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U43" t="n">
-        <v>73.31837760076863</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V43" t="n">
-        <v>29.48048434139375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415675</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0766826810463</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885733</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898275</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H44" t="n">
-        <v>92.99156715471233</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I44" t="n">
         <v>120.7842216425874</v>
@@ -25915,25 +25915,25 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S44" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>28.50237542636262</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349788</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>329.6200534221656</v>
       </c>
       <c r="Y44" t="n">
-        <v>190.1215130243255</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>137.7513087600035</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H45" t="n">
         <v>100.2135170486767</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S45" t="n">
         <v>148.5619805314415</v>
@@ -26003,16 +26003,16 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.31722422293751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,28 +26025,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>102.4080605874727</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>6.202506695391861</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H46" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>124.0671965026173</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>286.2621068442334</v>
       </c>
       <c r="V46" t="n">
-        <v>29.48048434139375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>389136.8836611776</v>
+        <v>389136.8836611775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389136.8836611776</v>
+        <v>389136.8836611775</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>411215.6045777032</v>
+        <v>411215.6045777031</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>411215.6045777032</v>
+        <v>411215.6045777031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411215.6045777032</v>
+        <v>411215.6045777031</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389136.8836611775</v>
+        <v>389136.8836611777</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>389136.8836611775</v>
+        <v>389136.8836611776</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389136.8836611775</v>
+        <v>389136.8836611776</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389136.8836611777</v>
+        <v>389136.8836611775</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057048</v>
@@ -26334,7 +26334,7 @@
         <v>296679.8019630671</v>
       </c>
       <c r="I2" t="n">
-        <v>308201.187261525</v>
+        <v>308201.1872615251</v>
       </c>
       <c r="J2" t="n">
         <v>308201.1872615251</v>
@@ -26346,7 +26346,7 @@
         <v>308201.187261525</v>
       </c>
       <c r="M2" t="n">
-        <v>296679.8019630672</v>
+        <v>296679.801963067</v>
       </c>
       <c r="N2" t="n">
         <v>296679.8019630671</v>
@@ -26355,7 +26355,7 @@
         <v>296679.8019630671</v>
       </c>
       <c r="P2" t="n">
-        <v>296679.8019630672</v>
+        <v>296679.801963067</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415054</v>
+        <v>48948.46790415051</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>16087.6296520253</v>
+        <v>16087.62965202529</v>
       </c>
       <c r="F4" t="n">
-        <v>16087.6296520253</v>
+        <v>16087.62965202529</v>
       </c>
       <c r="G4" t="n">
         <v>16087.62965202529</v>
       </c>
       <c r="H4" t="n">
-        <v>16087.62965202529</v>
+        <v>16087.6296520253</v>
       </c>
       <c r="I4" t="n">
         <v>23694.45677259781</v>
       </c>
       <c r="J4" t="n">
+        <v>23694.45677259782</v>
+      </c>
+      <c r="K4" t="n">
         <v>23694.45677259781</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23694.45677259782</v>
       </c>
       <c r="L4" t="n">
         <v>23694.45677259781</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947166</v>
       </c>
       <c r="F5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947166</v>
       </c>
       <c r="G5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947166</v>
       </c>
       <c r="H5" t="n">
         <v>26153.48139947167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148867.4361780585</v>
+        <v>148907.1583788715</v>
       </c>
       <c r="C6" t="n">
-        <v>148867.4361780584</v>
+        <v>148907.1583788715</v>
       </c>
       <c r="D6" t="n">
-        <v>148867.4361780585</v>
+        <v>148907.1583788715</v>
       </c>
       <c r="E6" t="n">
-        <v>-287936.6903620844</v>
+        <v>-278076.5351132594</v>
       </c>
       <c r="F6" t="n">
-        <v>243482.9628573201</v>
+        <v>253343.1181061452</v>
       </c>
       <c r="G6" t="n">
-        <v>243482.9628573201</v>
+        <v>253343.1181061452</v>
       </c>
       <c r="H6" t="n">
-        <v>243482.9628573201</v>
+        <v>253343.1181061452</v>
       </c>
       <c r="I6" t="n">
-        <v>239196.7094868222</v>
+        <v>248722.3729044019</v>
       </c>
       <c r="J6" t="n">
-        <v>246173.9150102523</v>
+        <v>255699.5784278318</v>
       </c>
       <c r="K6" t="n">
-        <v>246173.9150102523</v>
+        <v>255699.5784278318</v>
       </c>
       <c r="L6" t="n">
-        <v>246173.9150102522</v>
+        <v>255699.5784278317</v>
       </c>
       <c r="M6" t="n">
-        <v>194534.4949531696</v>
+        <v>204394.6502019945</v>
       </c>
       <c r="N6" t="n">
-        <v>243482.9628573201</v>
+        <v>253343.1181061452</v>
       </c>
       <c r="O6" t="n">
-        <v>243482.9628573201</v>
+        <v>253343.1181061452</v>
       </c>
       <c r="P6" t="n">
-        <v>243482.9628573202</v>
+        <v>253343.1181061451</v>
       </c>
     </row>
   </sheetData>
@@ -26822,7 +26822,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="N4" t="n">
         <v>222.6571589824343</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>196.4192705741101</v>
+        <v>196.41927057411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>44.87649059600796</v>
+        <v>44.87649059600773</v>
       </c>
       <c r="K12" t="n">
         <v>63.16278140436984</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>182.7418195035384</v>
       </c>
       <c r="M13" t="n">
-        <v>203.1696901045507</v>
+        <v>198.2537124572358</v>
       </c>
       <c r="N13" t="n">
         <v>203.8282805176756</v>
       </c>
       <c r="O13" t="n">
-        <v>68.19889441407307</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
         <v>123.4947431105476</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.16278140436984</v>
+        <v>108.0392720003776</v>
       </c>
       <c r="L15" t="n">
         <v>131.7205999808062</v>
@@ -35746,7 +35746,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.78943443655633</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>182.7418195035384</v>
@@ -35822,7 +35822,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P16" t="n">
-        <v>20.82680632957884</v>
+        <v>119.8022656121939</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M18" t="n">
-        <v>173.2641194114734</v>
+        <v>218.1406100074811</v>
       </c>
       <c r="N18" t="n">
         <v>192.4040918724002</v>
@@ -35980,7 +35980,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P18" t="n">
-        <v>148.5999332740018</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q18" t="n">
         <v>18.91294384054839</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L19" t="n">
         <v>182.7418195035384</v>
@@ -36053,16 +36053,16 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N19" t="n">
-        <v>200.1358030193221</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O19" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P19" t="n">
-        <v>123.4947431105476</v>
+        <v>19.60330618061748</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>44.87649059600796</v>
       </c>
       <c r="K21" t="n">
         <v>63.16278140436984</v>
@@ -36217,7 +36217,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P21" t="n">
-        <v>148.5999332740018</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
         <v>18.91294384054839</v>
@@ -36293,13 +36293,13 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O22" t="n">
-        <v>68.19889441407307</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P22" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957884</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>120.302719376557</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K23" t="n">
         <v>75.84728673267949</v>
@@ -36372,10 +36372,10 @@
         <v>185.7067999020271</v>
       </c>
       <c r="O23" t="n">
-        <v>161.8877042666142</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="P23" t="n">
-        <v>103.3179143700195</v>
+        <v>120.2020081758048</v>
       </c>
       <c r="Q23" t="n">
         <v>28.92811091512851</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K24" t="n">
-        <v>211.9307089303076</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L24" t="n">
         <v>131.7205999808062</v>
@@ -36457,7 +36457,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.91294384054839</v>
+        <v>50.82331484859056</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.223500148961108</v>
+        <v>1.223500148961019</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>120.302719376557</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K26" t="n">
         <v>75.84728673267949</v>
@@ -36615,7 +36615,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q26" t="n">
-        <v>28.92811091512851</v>
+        <v>132.819547845058</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>16.41128244662761</v>
+        <v>120.302719376557</v>
       </c>
       <c r="K29" t="n">
         <v>75.84728673267949</v>
@@ -36840,10 +36840,10 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M29" t="n">
-        <v>218.8667048950888</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N29" t="n">
-        <v>248.8950473907584</v>
+        <v>185.7067999020271</v>
       </c>
       <c r="O29" t="n">
         <v>161.8877042666142</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>116.8575565178956</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>63.16278140436984</v>
@@ -36931,7 +36931,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.82331484859056</v>
+        <v>167.6808713664863</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>98.97545928261535</v>
+        <v>98.97545928261528</v>
       </c>
       <c r="L31" t="n">
         <v>182.7418195035384</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K33" t="n">
-        <v>63.16278140436984</v>
+        <v>95.07315241241203</v>
       </c>
       <c r="L33" t="n">
-        <v>185.1613974143476</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M33" t="n">
         <v>173.2641194114734</v>
@@ -37162,7 +37162,7 @@
         <v>192.4040918724002</v>
       </c>
       <c r="O33" t="n">
-        <v>248.8950473907584</v>
+        <v>153.5679172983619</v>
       </c>
       <c r="P33" t="n">
         <v>103.7234426779939</v>
@@ -37308,7 +37308,7 @@
         <v>16.41128244662761</v>
       </c>
       <c r="K35" t="n">
-        <v>75.84728673267949</v>
+        <v>75.84728673267914</v>
       </c>
       <c r="L35" t="n">
         <v>131.3697729949752</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>44.87649059600796</v>
+        <v>44.87649059600808</v>
       </c>
       <c r="K36" t="n">
         <v>63.16278140436984</v>
@@ -37481,7 +37481,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P37" t="n">
-        <v>118.578765463233</v>
+        <v>118.5787654632331</v>
       </c>
       <c r="Q37" t="n">
         <v>1.223500148961108</v>
@@ -37557,7 +37557,7 @@
         <v>185.7067999020271</v>
       </c>
       <c r="O38" t="n">
-        <v>161.8877042666138</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P38" t="n">
         <v>103.3179143700195</v>
@@ -37712,16 +37712,16 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N40" t="n">
-        <v>200.1358030193222</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O40" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P40" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632331</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>75.84728673267949</v>
       </c>
       <c r="L41" t="n">
-        <v>131.3697729949752</v>
+        <v>131.3697729949748</v>
       </c>
       <c r="M41" t="n">
         <v>178.1635154538907</v>
@@ -37864,7 +37864,7 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L42" t="n">
-        <v>176.5970905768143</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M42" t="n">
         <v>173.2641194114734</v>
@@ -37873,7 +37873,7 @@
         <v>192.4040918724002</v>
       </c>
       <c r="O42" t="n">
-        <v>153.5679172983619</v>
+        <v>198.44440789437</v>
       </c>
       <c r="P42" t="n">
         <v>103.7234426779939</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L43" t="n">
         <v>182.7418195035384</v>
@@ -37952,13 +37952,13 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O43" t="n">
-        <v>168.3978538456496</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>123.4947431105476</v>
+        <v>19.60330618061782</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>108.0392720003779</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L45" t="n">
         <v>131.7205999808062</v>
       </c>
       <c r="M45" t="n">
-        <v>173.2641194114734</v>
+        <v>187.8875428974474</v>
       </c>
       <c r="N45" t="n">
-        <v>192.4040918724002</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="O45" t="n">
         <v>153.5679172983619</v>
@@ -38189,10 +38189,10 @@
         <v>203.8282805176756</v>
       </c>
       <c r="O46" t="n">
-        <v>167.1743536966885</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>123.4947431105476</v>
+        <v>118.5787654632331</v>
       </c>
       <c r="Q46" t="n">
         <v>1.223500148961108</v>
